--- a/maps/Dosaging.xlsx
+++ b/maps/Dosaging.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/jacob_engel_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{C7E22464-8063-5A48-8AF8-B8CBF9685F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A95E6E5-2782-4142-9BA1-4E900145DED9}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{C7E22464-8063-5A48-8AF8-B8CBF9685F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AACA2AB7-13A3-44C1-92D3-B2F9271DCC76}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="17250" xr2:uid="{4D4295CA-5E27-D54A-800A-CCB7595BF199}"/>
+    <workbookView xWindow="-15255" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{4D4295CA-5E27-D54A-800A-CCB7595BF199}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,13 +877,13 @@
       <c r="A39" t="s">
         <v>39</v>
       </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
